--- a/city-metro-visualization/data/北京/metro_exchange_lines.xlsx
+++ b/city-metro-visualization/data/北京/metro_exchange_lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="431">
   <si>
     <t>station_name</t>
   </si>
@@ -43,9 +43,15 @@
     <t>万安</t>
   </si>
   <si>
+    <t>万寿寺</t>
+  </si>
+  <si>
     <t>万寿路</t>
   </si>
   <si>
+    <t>万泉河桥</t>
+  </si>
+  <si>
     <t>万源街</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>东直门</t>
   </si>
   <si>
+    <t>东管头南</t>
+  </si>
+  <si>
     <t>东风北桥</t>
   </si>
   <si>
@@ -676,7 +685,7 @@
     <t>清华东路西口</t>
   </si>
   <si>
-    <t>清河</t>
+    <t>清河站</t>
   </si>
   <si>
     <t>清源路</t>
@@ -730,6 +739,9 @@
     <t>珠市口</t>
   </si>
   <si>
+    <t>甘家口</t>
+  </si>
+  <si>
     <t>生命科学园</t>
   </si>
   <si>
@@ -742,6 +754,9 @@
     <t>白堆子</t>
   </si>
   <si>
+    <t>白盆窑</t>
+  </si>
+  <si>
     <t>白石桥南</t>
   </si>
   <si>
@@ -826,6 +841,9 @@
     <t>芍药居</t>
   </si>
   <si>
+    <t>花乡东桥</t>
+  </si>
+  <si>
     <t>花园桥</t>
   </si>
   <si>
@@ -835,6 +853,9 @@
     <t>花梨坎</t>
   </si>
   <si>
+    <t>苏州桥</t>
+  </si>
+  <si>
     <t>苏州街</t>
   </si>
   <si>
@@ -1060,6 +1081,9 @@
     <t>西郊线</t>
   </si>
   <si>
+    <t>16号线</t>
+  </si>
+  <si>
     <t>1号线</t>
   </si>
   <si>
@@ -1096,6 +1120,9 @@
     <t>13号线,2号线,首都机场线</t>
   </si>
   <si>
+    <t>房山线</t>
+  </si>
+  <si>
     <t>8号线南段</t>
   </si>
   <si>
@@ -1129,9 +1156,6 @@
     <t>1号线,9号线</t>
   </si>
   <si>
-    <t>16号线</t>
-  </si>
-  <si>
     <t>5号线</t>
   </si>
   <si>
@@ -1165,7 +1189,7 @@
     <t>14号线西段</t>
   </si>
   <si>
-    <t>4号线大兴线,9号线</t>
+    <t>16号线,4号线大兴线,9号线</t>
   </si>
   <si>
     <t>1号线,2号线</t>
@@ -1183,9 +1207,6 @@
     <t>燕房线</t>
   </si>
   <si>
-    <t>房山线</t>
-  </si>
-  <si>
     <t>15号线,8号线</t>
   </si>
   <si>
@@ -1280,6 +1301,9 @@
   </si>
   <si>
     <t>13号线,8号线</t>
+  </si>
+  <si>
+    <t>10号线,房山线</t>
   </si>
   <si>
     <t>2号线,8号线</t>
@@ -1640,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D2">
         <v>116.592808</v>
@@ -1688,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D3">
         <v>116.615583</v>
@@ -1705,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D4">
         <v>116.294292</v>
@@ -1722,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D5">
         <v>116.231977</v>
@@ -1739,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D6">
-        <v>116.294765</v>
+        <v>116.309904</v>
       </c>
       <c r="E6">
-        <v>39.907474</v>
+        <v>39.947773</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1756,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D7">
-        <v>116.505403</v>
+        <v>116.294765</v>
       </c>
       <c r="E7">
-        <v>39.802971</v>
+        <v>39.907474</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1773,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D8">
-        <v>116.657379</v>
+        <v>116.300157</v>
       </c>
       <c r="E8">
-        <v>39.863491</v>
+        <v>39.985067</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1790,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D9">
-        <v>116.63216</v>
+        <v>116.505403</v>
       </c>
       <c r="E9">
-        <v>39.863328</v>
+        <v>39.802971</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1804,16 +1828,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D10">
-        <v>116.456997</v>
+        <v>116.657379</v>
       </c>
       <c r="E10">
-        <v>39.961508</v>
+        <v>39.863491</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1824,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D11">
-        <v>116.320193</v>
+        <v>116.63216</v>
       </c>
       <c r="E11">
-        <v>40.033007</v>
+        <v>39.863328</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1838,16 +1862,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D12">
-        <v>116.122225</v>
+        <v>116.456997</v>
       </c>
       <c r="E12">
-        <v>39.905138</v>
+        <v>39.961508</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1855,16 +1879,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <v>116.41848</v>
+        <v>116.320193</v>
       </c>
       <c r="E13">
-        <v>39.908325</v>
+        <v>40.033007</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1872,16 +1896,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D14">
-        <v>116.417493</v>
+        <v>116.122225</v>
       </c>
       <c r="E14">
-        <v>39.92437</v>
+        <v>39.905138</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1889,16 +1913,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D15">
-        <v>116.434133</v>
+        <v>116.41848</v>
       </c>
       <c r="E15">
-        <v>39.933801</v>
+        <v>39.908325</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1906,16 +1930,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D16">
-        <v>116.73385</v>
+        <v>116.417493</v>
       </c>
       <c r="E16">
-        <v>39.903147</v>
+        <v>39.92437</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1926,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D17">
-        <v>116.451657</v>
+        <v>116.434133</v>
       </c>
       <c r="E17">
-        <v>39.923054</v>
+        <v>39.933801</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1943,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D18">
-        <v>116.467412</v>
+        <v>116.73385</v>
       </c>
       <c r="E18">
-        <v>40.01067</v>
+        <v>39.903147</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1957,16 +1981,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D19">
-        <v>116.435842</v>
+        <v>116.451657</v>
       </c>
       <c r="E19">
-        <v>39.941626</v>
+        <v>39.923054</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1977,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D20">
-        <v>116.485919</v>
+        <v>116.467412</v>
       </c>
       <c r="E20">
-        <v>39.958375</v>
+        <v>40.01067</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1991,16 +2015,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D21">
-        <v>116.409427</v>
+        <v>116.435842</v>
       </c>
       <c r="E21">
-        <v>39.805074</v>
+        <v>39.941626</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2011,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D22">
-        <v>116.316467</v>
+        <v>116.321319</v>
       </c>
       <c r="E22">
-        <v>39.983991</v>
+        <v>39.852631</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2028,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D23">
-        <v>116.410803</v>
+        <v>116.485919</v>
       </c>
       <c r="E23">
-        <v>39.923705</v>
+        <v>39.958375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2045,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D24">
-        <v>116.293857</v>
+        <v>116.409427</v>
       </c>
       <c r="E24">
-        <v>39.855111</v>
+        <v>39.805074</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2062,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D25">
-        <v>116.296748</v>
+        <v>116.316467</v>
       </c>
       <c r="E25">
-        <v>39.840444</v>
+        <v>39.983991</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2079,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D26">
-        <v>116.297176</v>
+        <v>116.410803</v>
       </c>
       <c r="E26">
-        <v>39.825233</v>
+        <v>39.923705</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2096,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D27">
-        <v>116.30454</v>
+        <v>116.293857</v>
       </c>
       <c r="E27">
-        <v>39.849639</v>
+        <v>39.855111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2113,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D28">
-        <v>116.678811</v>
+        <v>116.296748</v>
       </c>
       <c r="E28">
-        <v>39.87549600000001</v>
+        <v>39.840444</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2130,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D29">
-        <v>116.319079</v>
+        <v>116.297176</v>
       </c>
       <c r="E29">
-        <v>39.712387</v>
+        <v>39.825233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2147,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D30">
-        <v>116.657533</v>
+        <v>116.30454</v>
       </c>
       <c r="E30">
-        <v>39.890278</v>
+        <v>39.849639</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2161,16 +2185,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D31">
-        <v>116.478695</v>
+        <v>116.678811</v>
       </c>
       <c r="E31">
-        <v>39.89322199999999</v>
+        <v>39.87549600000001</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2181,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D32">
-        <v>116.273987</v>
+        <v>116.319079</v>
       </c>
       <c r="E32">
-        <v>39.907456</v>
+        <v>39.712387</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2198,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D33">
-        <v>116.423903</v>
+        <v>116.657533</v>
       </c>
       <c r="E33">
-        <v>39.785046</v>
+        <v>39.890278</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2212,16 +2236,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="D34">
-        <v>116.337742</v>
+        <v>116.478695</v>
       </c>
       <c r="E34">
-        <v>39.992894</v>
+        <v>39.89322199999999</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2232,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D35">
-        <v>116.490632</v>
+        <v>116.273987</v>
       </c>
       <c r="E35">
-        <v>39.80689</v>
+        <v>39.907456</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2249,13 +2273,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D36">
-        <v>116.480307</v>
+        <v>116.423903</v>
       </c>
       <c r="E36">
-        <v>39.803011</v>
+        <v>39.785046</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2266,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D37">
-        <v>116.601913</v>
+        <v>116.337742</v>
       </c>
       <c r="E37">
-        <v>39.812607</v>
+        <v>39.992894</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2283,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D38">
-        <v>116.461794</v>
+        <v>116.490632</v>
       </c>
       <c r="E38">
-        <v>39.949415</v>
+        <v>39.80689</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2300,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D39">
-        <v>116.321367</v>
+        <v>116.480307</v>
       </c>
       <c r="E39">
-        <v>39.966956</v>
+        <v>39.803011</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2317,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D40">
-        <v>116.396219</v>
+        <v>116.601913</v>
       </c>
       <c r="E40">
-        <v>39.937583</v>
+        <v>39.812607</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2334,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D41">
-        <v>116.554639</v>
+        <v>116.461794</v>
       </c>
       <c r="E41">
-        <v>39.909215</v>
+        <v>39.949415</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2351,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D42">
-        <v>116.684732</v>
+        <v>116.321367</v>
       </c>
       <c r="E42">
-        <v>40.132573</v>
+        <v>39.966956</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2368,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D43">
-        <v>116.381353</v>
+        <v>116.396219</v>
       </c>
       <c r="E43">
-        <v>39.976723</v>
+        <v>39.937583</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2385,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D44">
-        <v>116.431761</v>
+        <v>116.554639</v>
       </c>
       <c r="E44">
-        <v>39.968337</v>
+        <v>39.909215</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2402,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D45">
-        <v>116.235948</v>
+        <v>116.684732</v>
       </c>
       <c r="E45">
-        <v>39.90744</v>
+        <v>40.132573</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2419,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D46">
-        <v>116.212684</v>
+        <v>116.381353</v>
       </c>
       <c r="E46">
-        <v>39.907442</v>
+        <v>39.976723</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2436,13 +2460,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D47">
-        <v>116.618658</v>
+        <v>116.431761</v>
       </c>
       <c r="E47">
-        <v>39.906121</v>
+        <v>39.968337</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2450,16 +2474,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D48">
-        <v>116.309919</v>
+        <v>116.235948</v>
       </c>
       <c r="E48">
-        <v>39.907469</v>
+        <v>39.90744</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2470,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D49">
-        <v>116.370796</v>
+        <v>116.212684</v>
       </c>
       <c r="E49">
-        <v>39.836135</v>
+        <v>39.907442</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2487,13 +2511,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D50">
-        <v>116.35267</v>
+        <v>116.618658</v>
       </c>
       <c r="E50">
-        <v>40.000958</v>
+        <v>39.906121</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2504,13 +2528,13 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D51">
-        <v>116.302808</v>
+        <v>116.309919</v>
       </c>
       <c r="E51">
-        <v>39.880239</v>
+        <v>39.907469</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2521,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D52">
-        <v>116.315142</v>
+        <v>116.370796</v>
       </c>
       <c r="E52">
-        <v>39.886886</v>
+        <v>39.836135</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2538,13 +2562,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D53">
-        <v>116.430947</v>
+        <v>116.35267</v>
       </c>
       <c r="E53">
-        <v>40.001134</v>
+        <v>40.000958</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2555,13 +2579,13 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D54">
-        <v>116.321459</v>
+        <v>116.302808</v>
       </c>
       <c r="E54">
-        <v>39.907422</v>
+        <v>39.880239</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2572,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D55">
-        <v>116.461724</v>
+        <v>116.315142</v>
       </c>
       <c r="E55">
-        <v>39.941344</v>
+        <v>39.886886</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2589,13 +2613,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D56">
-        <v>116.282272</v>
+        <v>116.430947</v>
       </c>
       <c r="E56">
-        <v>40.021398</v>
+        <v>40.001134</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2603,16 +2627,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D57">
-        <v>116.453976</v>
+        <v>116.321459</v>
       </c>
       <c r="E57">
-        <v>39.852227</v>
+        <v>39.907422</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2623,13 +2647,13 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D58">
-        <v>116.422119</v>
+        <v>116.461724</v>
       </c>
       <c r="E58">
-        <v>39.85752100000001</v>
+        <v>39.941344</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2640,13 +2664,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D59">
-        <v>116.397937</v>
+        <v>116.282272</v>
       </c>
       <c r="E59">
-        <v>39.900192</v>
+        <v>40.021398</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2657,13 +2681,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D60">
-        <v>116.339031</v>
+        <v>116.453976</v>
       </c>
       <c r="E60">
-        <v>39.93825</v>
+        <v>39.852227</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2674,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D61">
-        <v>116.461325</v>
+        <v>116.422119</v>
       </c>
       <c r="E61">
-        <v>39.884387</v>
+        <v>39.85752100000001</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2691,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D62">
-        <v>116.503439</v>
+        <v>116.397937</v>
       </c>
       <c r="E62">
-        <v>39.887369</v>
+        <v>39.900192</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2705,16 +2729,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D63">
-        <v>116.378963</v>
+        <v>116.339031</v>
       </c>
       <c r="E63">
-        <v>39.865029</v>
+        <v>39.93825</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2725,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D64">
-        <v>116.315842</v>
+        <v>116.461325</v>
       </c>
       <c r="E64">
-        <v>39.992212</v>
+        <v>39.884387</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2742,13 +2766,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D65">
-        <v>116.427287</v>
+        <v>116.503439</v>
       </c>
       <c r="E65">
-        <v>39.904983</v>
+        <v>39.887369</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2759,13 +2783,13 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D66">
-        <v>116.321218</v>
+        <v>116.378963</v>
       </c>
       <c r="E66">
-        <v>39.894706</v>
+        <v>39.865029</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2773,16 +2797,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D67">
-        <v>116.394193</v>
+        <v>116.315842</v>
       </c>
       <c r="E67">
-        <v>39.976953</v>
+        <v>39.992212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2793,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D68">
-        <v>116.130428</v>
+        <v>116.427287</v>
       </c>
       <c r="E68">
-        <v>40.068128</v>
+        <v>39.904983</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2807,16 +2831,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="D69">
-        <v>116.277647</v>
+        <v>116.321218</v>
       </c>
       <c r="E69">
-        <v>40.002373</v>
+        <v>39.894706</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2824,16 +2848,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D70">
-        <v>116.477319</v>
+        <v>116.394193</v>
       </c>
       <c r="E70">
-        <v>39.875445</v>
+        <v>39.976953</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2844,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D71">
-        <v>116.416884</v>
+        <v>116.130428</v>
       </c>
       <c r="E71">
-        <v>39.940782</v>
+        <v>40.068128</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2861,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D72">
-        <v>116.368143</v>
+        <v>116.277647</v>
       </c>
       <c r="E72">
-        <v>40.001492</v>
+        <v>40.002373</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2878,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D73">
-        <v>116.386829</v>
+        <v>116.477319</v>
       </c>
       <c r="E73">
-        <v>39.93324699999999</v>
+        <v>39.875445</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2895,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D74">
-        <v>116.434518</v>
+        <v>116.416884</v>
       </c>
       <c r="E74">
-        <v>40.042997</v>
+        <v>39.940782</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2912,13 +2936,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D75">
-        <v>116.418089</v>
+        <v>116.368143</v>
       </c>
       <c r="E75">
-        <v>40.030436</v>
+        <v>40.001492</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2929,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D76">
-        <v>116.707056</v>
+        <v>116.386829</v>
       </c>
       <c r="E76">
-        <v>39.903268</v>
+        <v>39.93324699999999</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2946,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D77">
-        <v>116.688358</v>
+        <v>116.434518</v>
       </c>
       <c r="E77">
-        <v>39.903024</v>
+        <v>40.042997</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2963,13 +2987,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D78">
-        <v>116.281949</v>
+        <v>116.418089</v>
       </c>
       <c r="E78">
-        <v>40.222001</v>
+        <v>40.030436</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2980,13 +3004,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D79">
-        <v>116.207729</v>
+        <v>116.707056</v>
       </c>
       <c r="E79">
-        <v>40.240255</v>
+        <v>39.903268</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2997,13 +3021,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D80">
-        <v>116.502045</v>
+        <v>116.688358</v>
       </c>
       <c r="E80">
-        <v>39.923076</v>
+        <v>39.903024</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3011,16 +3035,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D81">
-        <v>116.457983</v>
+        <v>116.281949</v>
       </c>
       <c r="E81">
-        <v>39.866417</v>
+        <v>40.222001</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3031,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="D82">
-        <v>116.501084</v>
+        <v>116.207729</v>
       </c>
       <c r="E82">
-        <v>39.874578</v>
+        <v>40.240255</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3048,13 +3072,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D83">
-        <v>116.609535</v>
+        <v>116.502045</v>
       </c>
       <c r="E83">
-        <v>40.128478</v>
+        <v>39.923076</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3062,16 +3086,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="D84">
-        <v>116.352583</v>
+        <v>116.457983</v>
       </c>
       <c r="E84">
-        <v>39.907234</v>
+        <v>39.866417</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3082,13 +3106,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D85">
-        <v>116.287534</v>
+        <v>116.501084</v>
       </c>
       <c r="E85">
-        <v>40.20749199999999</v>
+        <v>39.874578</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3096,16 +3120,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D86">
-        <v>116.404192</v>
+        <v>116.609535</v>
       </c>
       <c r="E86">
-        <v>39.933848</v>
+        <v>40.128478</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3113,16 +3137,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D87">
-        <v>116.461834</v>
+        <v>116.352583</v>
       </c>
       <c r="E87">
-        <v>39.893512</v>
+        <v>39.907234</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3133,13 +3157,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="D88">
-        <v>116.526836</v>
+        <v>116.287534</v>
       </c>
       <c r="E88">
-        <v>39.859691</v>
+        <v>40.20749199999999</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3147,16 +3171,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="D89">
-        <v>116.576709</v>
+        <v>116.404192</v>
       </c>
       <c r="E89">
-        <v>39.910139</v>
+        <v>39.933848</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3164,16 +3188,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="D90">
-        <v>116.190337</v>
+        <v>116.461834</v>
       </c>
       <c r="E90">
-        <v>39.90745</v>
+        <v>39.893512</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3184,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D91">
-        <v>116.539901</v>
+        <v>116.526836</v>
       </c>
       <c r="E91">
-        <v>39.772962</v>
+        <v>39.859691</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3201,13 +3225,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D92">
-        <v>116.564211</v>
+        <v>116.576709</v>
       </c>
       <c r="E92">
-        <v>40.114127</v>
+        <v>39.910139</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3215,16 +3239,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D93">
-        <v>116.461618</v>
+        <v>116.190337</v>
       </c>
       <c r="E93">
-        <v>39.923337</v>
+        <v>39.90745</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3235,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D94">
-        <v>116.402073</v>
+        <v>116.539901</v>
       </c>
       <c r="E94">
-        <v>39.814838</v>
+        <v>39.772962</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3252,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D95">
-        <v>116.417975</v>
+        <v>116.564211</v>
       </c>
       <c r="E95">
-        <v>39.968386</v>
+        <v>40.114127</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3266,16 +3290,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D96">
-        <v>116.418504</v>
+        <v>116.461618</v>
       </c>
       <c r="E96">
-        <v>39.958734</v>
+        <v>39.923337</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3286,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D97">
-        <v>116.384209</v>
+        <v>116.402073</v>
       </c>
       <c r="E97">
-        <v>39.900098</v>
+        <v>39.814838</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3303,13 +3327,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="D98">
-        <v>116.478195</v>
+        <v>116.417975</v>
       </c>
       <c r="E98">
-        <v>40.02715999999999</v>
+        <v>39.968386</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3317,16 +3341,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99">
-        <v>116.495456</v>
+        <v>116.418504</v>
       </c>
       <c r="E99">
-        <v>39.908749</v>
+        <v>39.958734</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3334,16 +3358,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D100">
-        <v>116.515664</v>
+        <v>116.384209</v>
       </c>
       <c r="E100">
-        <v>39.908495</v>
+        <v>39.900098</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3354,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D101">
-        <v>116.13401</v>
+        <v>116.478195</v>
       </c>
       <c r="E101">
-        <v>39.91603</v>
+        <v>40.02715999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3368,16 +3392,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D102">
-        <v>116.336116</v>
+        <v>116.495456</v>
       </c>
       <c r="E102">
-        <v>40.0708</v>
+        <v>39.908749</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3385,16 +3409,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="D103">
-        <v>116.363025</v>
+        <v>116.515664</v>
       </c>
       <c r="E103">
-        <v>40.081175</v>
+        <v>39.908495</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3405,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D104">
-        <v>116.461806</v>
+        <v>116.13401</v>
       </c>
       <c r="E104">
-        <v>39.933747</v>
+        <v>39.91603</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3422,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D105">
-        <v>116.201643</v>
+        <v>116.336116</v>
       </c>
       <c r="E105">
-        <v>39.861328</v>
+        <v>40.0708</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3436,16 +3460,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D106">
-        <v>116.32519</v>
+        <v>116.363025</v>
       </c>
       <c r="E106">
-        <v>39.943114</v>
+        <v>40.081175</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3456,13 +3480,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D107">
-        <v>116.555127</v>
+        <v>116.461806</v>
       </c>
       <c r="E107">
-        <v>40.07003</v>
+        <v>39.933747</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3470,16 +3494,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D108">
-        <v>116.461841</v>
+        <v>116.201643</v>
       </c>
       <c r="E108">
-        <v>39.909104</v>
+        <v>39.861328</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3487,16 +3511,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="D109">
-        <v>116.310186</v>
+        <v>116.32519</v>
       </c>
       <c r="E109">
-        <v>39.999662</v>
+        <v>39.943114</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3507,13 +3531,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D110">
-        <v>116.686349</v>
+        <v>116.555127</v>
       </c>
       <c r="E110">
-        <v>39.871926</v>
+        <v>40.07003</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3521,16 +3545,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="D111">
-        <v>116.511821</v>
+        <v>116.461841</v>
       </c>
       <c r="E111">
-        <v>39.860728</v>
+        <v>39.909104</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3538,16 +3562,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D112">
-        <v>116.356866</v>
+        <v>116.310186</v>
       </c>
       <c r="E112">
-        <v>39.907242</v>
+        <v>39.999662</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3558,13 +3582,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D113">
-        <v>116.276061</v>
+        <v>116.686349</v>
       </c>
       <c r="E113">
-        <v>39.865226</v>
+        <v>39.871926</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3575,13 +3599,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D114">
-        <v>116.365522</v>
+        <v>116.511821</v>
       </c>
       <c r="E114">
-        <v>39.735583</v>
+        <v>39.860728</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3589,16 +3613,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D115">
-        <v>116.416725</v>
+        <v>116.356866</v>
       </c>
       <c r="E115">
-        <v>39.511375</v>
+        <v>39.907242</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3606,16 +3630,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D116">
-        <v>116.417377</v>
+        <v>116.276061</v>
       </c>
       <c r="E116">
-        <v>40.00384099999999</v>
+        <v>39.865226</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3623,16 +3647,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D117">
-        <v>116.475783</v>
+        <v>116.365522</v>
       </c>
       <c r="E117">
-        <v>39.908287</v>
+        <v>39.735583</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3643,13 +3667,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D118">
-        <v>116.24048</v>
+        <v>116.416725</v>
       </c>
       <c r="E118">
-        <v>39.85947</v>
+        <v>39.511375</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3657,16 +3681,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D119">
-        <v>116.039906</v>
+        <v>116.417377</v>
       </c>
       <c r="E119">
-        <v>39.709893</v>
+        <v>40.00384099999999</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3674,16 +3698,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D120">
-        <v>116.399154</v>
+        <v>116.475783</v>
       </c>
       <c r="E120">
-        <v>39.845383</v>
+        <v>39.908287</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3694,13 +3718,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D121">
-        <v>116.401045</v>
+        <v>116.24048</v>
       </c>
       <c r="E121">
-        <v>39.83671500000001</v>
+        <v>39.85947</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3711,13 +3735,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D122">
-        <v>116.291681</v>
+        <v>116.039906</v>
       </c>
       <c r="E122">
-        <v>39.80781</v>
+        <v>39.709893</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3728,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D123">
-        <v>116.487935</v>
+        <v>116.399154</v>
       </c>
       <c r="E123">
-        <v>39.893183</v>
+        <v>39.845383</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3745,13 +3769,13 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="D124">
-        <v>116.345139</v>
+        <v>116.401045</v>
       </c>
       <c r="E124">
-        <v>39.966612</v>
+        <v>39.83671500000001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3762,13 +3786,13 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D125">
-        <v>116.420833</v>
+        <v>116.291681</v>
       </c>
       <c r="E125">
-        <v>39.882558</v>
+        <v>39.80781</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3779,13 +3803,13 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D126">
-        <v>116.401216</v>
+        <v>116.487935</v>
       </c>
       <c r="E126">
-        <v>39.90778</v>
+        <v>39.893183</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3796,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D127">
-        <v>116.391278</v>
+        <v>116.345139</v>
       </c>
       <c r="E127">
-        <v>39.907472</v>
+        <v>39.966612</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3813,13 +3837,13 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D128">
-        <v>116.319932</v>
+        <v>116.420833</v>
       </c>
       <c r="E128">
-        <v>39.670342</v>
+        <v>39.882558</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3830,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D129">
-        <v>116.398712</v>
+        <v>116.401216</v>
       </c>
       <c r="E129">
-        <v>39.88192</v>
+        <v>39.90778</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3847,13 +3871,13 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D130">
-        <v>116.412759</v>
+        <v>116.391278</v>
       </c>
       <c r="E130">
-        <v>40.075222</v>
+        <v>39.907472</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3864,13 +3888,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D131">
-        <v>116.412888</v>
+        <v>116.319932</v>
       </c>
       <c r="E131">
-        <v>40.083668</v>
+        <v>39.670342</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3881,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D132">
-        <v>116.412661</v>
+        <v>116.398712</v>
       </c>
       <c r="E132">
-        <v>40.066458</v>
+        <v>39.88192</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3898,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D133">
-        <v>116.447469</v>
+        <v>116.412759</v>
       </c>
       <c r="E133">
-        <v>39.972678</v>
+        <v>40.075222</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3915,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D134">
-        <v>116.393759</v>
+        <v>116.412888</v>
       </c>
       <c r="E134">
-        <v>39.985837</v>
+        <v>40.083668</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3929,16 +3953,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D135">
-        <v>116.391758</v>
+        <v>116.412661</v>
       </c>
       <c r="E135">
-        <v>40.002207</v>
+        <v>40.066458</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3949,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D136">
-        <v>116.5347</v>
+        <v>116.447469</v>
       </c>
       <c r="E136">
-        <v>40.045113</v>
+        <v>39.972678</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3966,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D137">
-        <v>116.394655</v>
+        <v>116.393759</v>
       </c>
       <c r="E137">
-        <v>39.968507</v>
+        <v>39.985837</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3980,16 +4004,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="D138">
-        <v>116.40824</v>
+        <v>116.391758</v>
       </c>
       <c r="E138">
-        <v>39.94918</v>
+        <v>40.002207</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4000,13 +4024,13 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D139">
-        <v>116.395145</v>
+        <v>116.5347</v>
       </c>
       <c r="E139">
-        <v>39.957227</v>
+        <v>40.045113</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4017,13 +4041,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D140">
-        <v>116.269956</v>
+        <v>116.394655</v>
       </c>
       <c r="E140">
-        <v>40.012195</v>
+        <v>39.968507</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4034,13 +4058,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D141">
-        <v>116.407845</v>
+        <v>116.40824</v>
       </c>
       <c r="E141">
-        <v>40.002619</v>
+        <v>39.94918</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4051,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D142">
-        <v>116.405954</v>
+        <v>116.395145</v>
       </c>
       <c r="E142">
-        <v>39.977005</v>
+        <v>39.957227</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4065,16 +4089,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D143">
-        <v>116.428368</v>
+        <v>116.269956</v>
       </c>
       <c r="E143">
-        <v>39.845849</v>
+        <v>40.012195</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4082,16 +4106,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D144">
-        <v>116.374314</v>
+        <v>116.407845</v>
       </c>
       <c r="E144">
-        <v>39.899765</v>
+        <v>40.002619</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4102,13 +4126,13 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D145">
-        <v>116.489496</v>
+        <v>116.405954</v>
       </c>
       <c r="E145">
-        <v>39.97110900000001</v>
+        <v>39.977005</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4116,16 +4140,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="D146">
-        <v>116.114443</v>
+        <v>116.428368</v>
       </c>
       <c r="E146">
-        <v>39.890465</v>
+        <v>39.845849</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4133,16 +4157,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="D147">
-        <v>116.459226</v>
+        <v>116.374314</v>
       </c>
       <c r="E147">
-        <v>39.827951</v>
+        <v>39.899765</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4153,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D148">
-        <v>116.21585</v>
+        <v>116.489496</v>
       </c>
       <c r="E148">
-        <v>40.068454</v>
+        <v>39.97110900000001</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4167,16 +4191,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D149">
-        <v>116.417093</v>
+        <v>116.114443</v>
       </c>
       <c r="E149">
-        <v>39.901063</v>
+        <v>39.890465</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4187,13 +4211,13 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D150">
-        <v>116.492968</v>
+        <v>116.459226</v>
       </c>
       <c r="E150">
-        <v>40.022201</v>
+        <v>39.827951</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4204,13 +4228,13 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D151">
-        <v>116.293979</v>
+        <v>116.21585</v>
       </c>
       <c r="E151">
-        <v>40.1309</v>
+        <v>40.068454</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4221,13 +4245,13 @@
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D152">
-        <v>116.293727</v>
+        <v>116.417093</v>
       </c>
       <c r="E152">
-        <v>39.974179</v>
+        <v>39.901063</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4238,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D153">
-        <v>116.599722</v>
+        <v>116.492968</v>
       </c>
       <c r="E153">
-        <v>39.925696</v>
+        <v>40.022201</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4255,13 +4279,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D154">
-        <v>116.477307</v>
+        <v>116.293979</v>
       </c>
       <c r="E154">
-        <v>39.885275</v>
+        <v>40.1309</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4272,13 +4296,13 @@
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D155">
-        <v>116.372883</v>
+        <v>116.293727</v>
       </c>
       <c r="E155">
-        <v>39.933949</v>
+        <v>39.974179</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4289,13 +4313,13 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D156">
-        <v>116.350425</v>
+        <v>116.599722</v>
       </c>
       <c r="E156">
-        <v>40.090607</v>
+        <v>39.925696</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4306,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D157">
-        <v>116.358239</v>
+        <v>116.477307</v>
       </c>
       <c r="E157">
-        <v>39.889418</v>
+        <v>39.885275</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4320,16 +4344,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="D158">
-        <v>116.433877</v>
+        <v>116.372883</v>
       </c>
       <c r="E158">
-        <v>39.893673</v>
+        <v>39.933949</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4340,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="D159">
-        <v>116.448998</v>
+        <v>116.350425</v>
       </c>
       <c r="E159">
-        <v>39.893648</v>
+        <v>40.090607</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4357,13 +4381,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="D160">
-        <v>116.184985</v>
+        <v>116.358239</v>
       </c>
       <c r="E160">
-        <v>39.74793</v>
+        <v>39.889418</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4374,13 +4398,13 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D161">
-        <v>116.227292</v>
+        <v>116.433877</v>
       </c>
       <c r="E161">
-        <v>39.932422</v>
+        <v>39.893673</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4388,16 +4412,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="D162">
-        <v>116.435806</v>
+        <v>116.448998</v>
       </c>
       <c r="E162">
-        <v>39.908501</v>
+        <v>39.893648</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4408,13 +4432,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D163">
-        <v>116.417156</v>
+        <v>116.184985</v>
       </c>
       <c r="E163">
-        <v>39.933592</v>
+        <v>39.74793</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4425,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D164">
-        <v>116.187193</v>
+        <v>116.227292</v>
       </c>
       <c r="E164">
-        <v>39.8581</v>
+        <v>39.932422</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4439,16 +4463,16 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="D165">
-        <v>116.441617</v>
+        <v>116.435806</v>
       </c>
       <c r="E165">
-        <v>39.77270900000001</v>
+        <v>39.908501</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4459,13 +4483,13 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D166">
-        <v>116.417028</v>
+        <v>116.417156</v>
       </c>
       <c r="E166">
-        <v>39.987836</v>
+        <v>39.933592</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4473,16 +4497,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D167">
-        <v>116.417537</v>
+        <v>116.187193</v>
       </c>
       <c r="E167">
-        <v>39.977121</v>
+        <v>39.8581</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4490,16 +4514,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D168">
-        <v>116.295467</v>
+        <v>116.441617</v>
       </c>
       <c r="E168">
-        <v>39.933268</v>
+        <v>39.77270900000001</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4510,13 +4534,13 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D169">
-        <v>116.447531</v>
+        <v>116.417028</v>
       </c>
       <c r="E169">
-        <v>39.845874</v>
+        <v>39.987836</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4524,16 +4548,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D170">
-        <v>115.989599</v>
+        <v>116.417537</v>
       </c>
       <c r="E170">
-        <v>39.706061</v>
+        <v>39.977121</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4541,16 +4565,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="D171">
-        <v>116.365549</v>
+        <v>116.295467</v>
       </c>
       <c r="E171">
-        <v>39.812592</v>
+        <v>39.933268</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4561,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D172">
-        <v>116.367742</v>
+        <v>116.447531</v>
       </c>
       <c r="E172">
-        <v>39.940667</v>
+        <v>39.845874</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4578,13 +4602,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D173">
-        <v>116.440244</v>
+        <v>115.989599</v>
       </c>
       <c r="E173">
-        <v>39.865868</v>
+        <v>39.706061</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4595,13 +4619,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="D174">
-        <v>116.460789</v>
+        <v>116.365549</v>
       </c>
       <c r="E174">
-        <v>39.80690999999999</v>
+        <v>39.812592</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4612,13 +4636,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D175">
-        <v>116.23359</v>
+        <v>116.367742</v>
       </c>
       <c r="E175">
-        <v>40.22055</v>
+        <v>39.940667</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4629,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D176">
-        <v>116.262059</v>
+        <v>116.440244</v>
       </c>
       <c r="E176">
-        <v>40.221726</v>
+        <v>39.865868</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4646,13 +4670,13 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D177">
-        <v>116.195371</v>
+        <v>116.460789</v>
       </c>
       <c r="E177">
-        <v>40.244624</v>
+        <v>39.80690999999999</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4663,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D178">
-        <v>116.06137</v>
+        <v>116.23359</v>
       </c>
       <c r="E178">
-        <v>39.713681</v>
+        <v>40.22055</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4680,13 +4704,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D179">
-        <v>116.411027</v>
+        <v>116.262059</v>
       </c>
       <c r="E179">
-        <v>39.865255</v>
+        <v>40.221726</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4694,16 +4718,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D180">
-        <v>116.469409</v>
+        <v>116.195371</v>
       </c>
       <c r="E180">
-        <v>39.998521</v>
+        <v>40.244624</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4714,13 +4738,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D181">
-        <v>116.487105</v>
+        <v>116.06137</v>
       </c>
       <c r="E181">
-        <v>40.0032</v>
+        <v>39.713681</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4731,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D182">
-        <v>116.481634</v>
+        <v>116.411027</v>
       </c>
       <c r="E182">
-        <v>39.984634</v>
+        <v>39.865255</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4748,13 +4772,13 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D183">
-        <v>116.449884</v>
+        <v>116.469409</v>
       </c>
       <c r="E183">
-        <v>39.995724</v>
+        <v>39.998521</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4765,13 +4789,13 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D184">
-        <v>116.478291</v>
+        <v>116.487105</v>
       </c>
       <c r="E184">
-        <v>39.933492</v>
+        <v>40.0032</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4779,16 +4803,16 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="D185">
-        <v>116.434584</v>
+        <v>116.481634</v>
       </c>
       <c r="E185">
-        <v>39.924499</v>
+        <v>39.984634</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4796,16 +4820,16 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="D186">
-        <v>116.399839</v>
+        <v>116.449884</v>
       </c>
       <c r="E186">
-        <v>39.859262</v>
+        <v>39.995724</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4816,13 +4840,13 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D187">
-        <v>116.337583</v>
+        <v>116.478291</v>
       </c>
       <c r="E187">
-        <v>39.907379</v>
+        <v>39.933492</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4833,13 +4857,13 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D188">
-        <v>116.313698</v>
+        <v>116.434584</v>
       </c>
       <c r="E188">
-        <v>40.104297</v>
+        <v>39.924499</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4850,13 +4874,13 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D189">
-        <v>116.466994</v>
+        <v>116.399839</v>
       </c>
       <c r="E189">
-        <v>40.020588</v>
+        <v>39.859262</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4867,13 +4891,13 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D190">
-        <v>116.187004</v>
+        <v>116.337583</v>
       </c>
       <c r="E190">
-        <v>39.92785</v>
+        <v>39.907379</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4881,16 +4905,16 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="D191">
-        <v>116.372998</v>
+        <v>116.313698</v>
       </c>
       <c r="E191">
-        <v>40.021906</v>
+        <v>40.104297</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4901,13 +4925,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D192">
-        <v>116.646606</v>
+        <v>116.466994</v>
       </c>
       <c r="E192">
-        <v>39.893393</v>
+        <v>40.020588</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4918,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D193">
-        <v>116.332204</v>
+        <v>116.187004</v>
       </c>
       <c r="E193">
-        <v>39.753458</v>
+        <v>39.92785</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4935,13 +4959,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D194">
-        <v>116.474947</v>
+        <v>116.372998</v>
       </c>
       <c r="E194">
-        <v>39.944132</v>
+        <v>40.021906</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4952,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D195">
-        <v>116.432728</v>
+        <v>116.646606</v>
       </c>
       <c r="E195">
-        <v>39.958157</v>
+        <v>39.893393</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4969,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D196">
-        <v>116.123254</v>
+        <v>116.332204</v>
       </c>
       <c r="E196">
-        <v>39.89578</v>
+        <v>39.753458</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4986,13 +5010,13 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D197">
-        <v>116.125809</v>
+        <v>116.474947</v>
       </c>
       <c r="E197">
-        <v>39.912383</v>
+        <v>39.944132</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5003,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D198">
-        <v>116.408464</v>
+        <v>116.432728</v>
       </c>
       <c r="E198">
-        <v>39.892725</v>
+        <v>39.958157</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5020,13 +5044,13 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D199">
-        <v>116.66872</v>
+        <v>116.123254</v>
       </c>
       <c r="E199">
-        <v>39.883677</v>
+        <v>39.89578</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5037,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D200">
-        <v>116.3926</v>
+        <v>116.125809</v>
       </c>
       <c r="E200">
-        <v>40.010122</v>
+        <v>39.912383</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5054,13 +5078,13 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D201">
-        <v>116.214853</v>
+        <v>116.408464</v>
       </c>
       <c r="E201">
-        <v>39.993582</v>
+        <v>39.892725</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5071,13 +5095,13 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="D202">
-        <v>116.591502</v>
+        <v>116.66872</v>
       </c>
       <c r="E202">
-        <v>39.8035</v>
+        <v>39.883677</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5088,13 +5112,13 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D203">
-        <v>116.581357</v>
+        <v>116.3926</v>
       </c>
       <c r="E203">
-        <v>39.795118</v>
+        <v>40.010122</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5105,13 +5129,13 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D204">
-        <v>116.500067</v>
+        <v>116.214853</v>
       </c>
       <c r="E204">
-        <v>39.866505</v>
+        <v>39.993582</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5122,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D205">
-        <v>116.238481</v>
+        <v>116.591502</v>
       </c>
       <c r="E205">
-        <v>40.071868</v>
+        <v>39.8035</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5139,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D206">
-        <v>116.248154</v>
+        <v>116.581357</v>
       </c>
       <c r="E206">
-        <v>40.065575</v>
+        <v>39.795118</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5156,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D207">
-        <v>116.450497</v>
+        <v>116.500067</v>
       </c>
       <c r="E207">
-        <v>39.908454</v>
+        <v>39.866505</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5170,16 +5194,16 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="D208">
-        <v>116.399369</v>
+        <v>116.238481</v>
       </c>
       <c r="E208">
-        <v>39.867435</v>
+        <v>40.071868</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5190,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D209">
-        <v>116.35458</v>
+        <v>116.248154</v>
       </c>
       <c r="E209">
-        <v>40.037728</v>
+        <v>40.065575</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5207,13 +5231,13 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D210">
-        <v>116.288865</v>
+        <v>116.450497</v>
       </c>
       <c r="E210">
-        <v>40.148278</v>
+        <v>39.908454</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5221,16 +5245,16 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="D211">
-        <v>116.280465</v>
+        <v>116.399369</v>
       </c>
       <c r="E211">
-        <v>40.164666</v>
+        <v>39.867435</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5241,13 +5265,13 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D212">
-        <v>116.304173</v>
+        <v>116.35458</v>
       </c>
       <c r="E212">
-        <v>39.858609</v>
+        <v>40.037728</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5258,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D213">
-        <v>116.400301</v>
+        <v>116.288865</v>
       </c>
       <c r="E213">
-        <v>39.851805</v>
+        <v>40.148278</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5275,13 +5299,13 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="D214">
-        <v>116.276531</v>
+        <v>116.280465</v>
       </c>
       <c r="E214">
-        <v>39.93258400000001</v>
+        <v>40.164666</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5289,16 +5313,16 @@
         <v>218</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D215">
-        <v>116.317564</v>
+        <v>116.304173</v>
       </c>
       <c r="E215">
-        <v>39.975996</v>
+        <v>39.858609</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5309,13 +5333,13 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D216">
-        <v>116.33953</v>
+        <v>116.400301</v>
       </c>
       <c r="E216">
-        <v>40.000673</v>
+        <v>39.851805</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5326,13 +5350,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D217">
-        <v>116.314797</v>
+        <v>116.276531</v>
       </c>
       <c r="E217">
-        <v>40.04109</v>
+        <v>39.93258400000001</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5340,16 +5364,16 @@
         <v>221</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="D218">
-        <v>116.332513</v>
+        <v>116.317564</v>
       </c>
       <c r="E218">
-        <v>39.742724</v>
+        <v>39.975996</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5360,13 +5384,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D219">
-        <v>116.161361</v>
+        <v>116.33953</v>
       </c>
       <c r="E219">
-        <v>40.068516</v>
+        <v>40.000673</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5377,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D220">
-        <v>116.327753</v>
+        <v>116.314797</v>
       </c>
       <c r="E220">
-        <v>39.889954</v>
+        <v>40.04109</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5394,13 +5418,13 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D221">
-        <v>116.460926</v>
+        <v>116.332513</v>
       </c>
       <c r="E221">
-        <v>39.875387</v>
+        <v>39.742724</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5411,13 +5435,13 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D222">
-        <v>116.747434</v>
+        <v>116.161361</v>
       </c>
       <c r="E222">
-        <v>39.902652</v>
+        <v>40.068516</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5428,13 +5452,13 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D223">
-        <v>116.448958</v>
+        <v>116.327753</v>
       </c>
       <c r="E223">
-        <v>39.760694</v>
+        <v>39.889954</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5445,13 +5469,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D224">
-        <v>116.289058</v>
+        <v>116.460926</v>
       </c>
       <c r="E224">
-        <v>39.965938</v>
+        <v>39.875387</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5462,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D225">
-        <v>116.418627</v>
+        <v>116.747434</v>
       </c>
       <c r="E225">
-        <v>39.799287</v>
+        <v>39.902652</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5479,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D226">
-        <v>116.417783</v>
+        <v>116.448958</v>
       </c>
       <c r="E226">
-        <v>39.917113</v>
+        <v>39.760694</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5496,13 +5520,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D227">
-        <v>116.373746</v>
+        <v>116.289058</v>
       </c>
       <c r="E227">
-        <v>39.915912</v>
+        <v>39.965938</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5513,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D228">
-        <v>116.537247</v>
+        <v>116.418627</v>
       </c>
       <c r="E228">
-        <v>39.855488</v>
+        <v>39.799287</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5530,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D229">
-        <v>115.973395</v>
+        <v>116.417783</v>
       </c>
       <c r="E229">
-        <v>39.719615</v>
+        <v>39.917113</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5547,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D230">
-        <v>116.369844</v>
+        <v>116.373746</v>
       </c>
       <c r="E230">
-        <v>39.976603</v>
+        <v>39.915912</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5564,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D231">
-        <v>116.639316</v>
+        <v>116.537247</v>
       </c>
       <c r="E231">
-        <v>39.926801</v>
+        <v>39.855488</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5581,13 +5605,13 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="D232">
-        <v>116.252888</v>
+        <v>115.973395</v>
       </c>
       <c r="E232">
-        <v>39.907433</v>
+        <v>39.719615</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5598,13 +5622,13 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D233">
-        <v>116.411571</v>
+        <v>116.369844</v>
       </c>
       <c r="E233">
-        <v>39.908069</v>
+        <v>39.976603</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5612,16 +5636,16 @@
         <v>237</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="D234">
-        <v>116.398104</v>
+        <v>116.639316</v>
       </c>
       <c r="E234">
-        <v>39.891267</v>
+        <v>39.926801</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5632,13 +5656,13 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D235">
-        <v>116.29423</v>
+        <v>116.252888</v>
       </c>
       <c r="E235">
-        <v>40.09479</v>
+        <v>39.907433</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5649,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D236">
-        <v>116.321662</v>
+        <v>116.411571</v>
       </c>
       <c r="E236">
-        <v>39.68651</v>
+        <v>39.908069</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5663,16 +5687,16 @@
         <v>240</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="D237">
-        <v>116.252914</v>
+        <v>116.398104</v>
       </c>
       <c r="E237">
-        <v>39.929503</v>
+        <v>39.891267</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5683,13 +5707,13 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D238">
-        <v>116.325762</v>
+        <v>116.334534</v>
       </c>
       <c r="E238">
-        <v>39.923818</v>
+        <v>39.923392</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5697,16 +5721,16 @@
         <v>242</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D239">
-        <v>116.32568</v>
+        <v>116.29423</v>
       </c>
       <c r="E239">
-        <v>39.93302199999999</v>
+        <v>40.09479</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5717,13 +5741,13 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D240">
-        <v>116.497768</v>
+        <v>116.321662</v>
       </c>
       <c r="E240">
-        <v>39.89253</v>
+        <v>39.68651</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5731,16 +5755,16 @@
         <v>244</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="D241">
-        <v>116.33996</v>
+        <v>116.252914</v>
       </c>
       <c r="E241">
-        <v>39.976476</v>
+        <v>39.929503</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5751,13 +5775,13 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D242">
-        <v>116.328709</v>
+        <v>116.325762</v>
       </c>
       <c r="E242">
-        <v>39.976334</v>
+        <v>39.923818</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5768,13 +5792,13 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D243">
-        <v>116.100334</v>
+        <v>116.313391</v>
       </c>
       <c r="E243">
-        <v>39.889378</v>
+        <v>39.81959000000001</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5782,16 +5806,16 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="D244">
-        <v>116.414103</v>
+        <v>116.32568</v>
       </c>
       <c r="E244">
-        <v>39.845905</v>
+        <v>39.93302199999999</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5802,13 +5826,13 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D245">
-        <v>116.641117</v>
+        <v>116.497768</v>
       </c>
       <c r="E245">
-        <v>40.12980200000001</v>
+        <v>39.89253</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5819,13 +5843,13 @@
         <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D246">
-        <v>116.41994</v>
+        <v>116.33996</v>
       </c>
       <c r="E246">
-        <v>39.893172</v>
+        <v>39.976476</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5836,13 +5860,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D247">
-        <v>116.297432</v>
+        <v>116.328709</v>
       </c>
       <c r="E247">
-        <v>39.83248</v>
+        <v>39.976334</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5853,13 +5877,13 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D248">
-        <v>116.373126</v>
+        <v>116.100334</v>
       </c>
       <c r="E248">
-        <v>39.948653</v>
+        <v>39.889378</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5870,13 +5894,13 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D249">
-        <v>116.21884</v>
+        <v>116.414103</v>
       </c>
       <c r="E249">
-        <v>39.794885</v>
+        <v>39.845905</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5887,13 +5911,13 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D250">
-        <v>116.188145</v>
+        <v>116.641117</v>
       </c>
       <c r="E250">
-        <v>40.068936</v>
+        <v>40.12980200000001</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5904,13 +5928,13 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D251">
-        <v>116.41235</v>
+        <v>116.41994</v>
       </c>
       <c r="E251">
-        <v>40.053032</v>
+        <v>39.893172</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5924,10 +5948,10 @@
         <v>372</v>
       </c>
       <c r="D252">
-        <v>116.414496</v>
+        <v>116.297432</v>
       </c>
       <c r="E252">
-        <v>40.041956</v>
+        <v>39.83248</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5938,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D253">
-        <v>116.599002</v>
+        <v>116.373126</v>
       </c>
       <c r="E253">
-        <v>39.90909</v>
+        <v>39.948653</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5955,13 +5979,13 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D254">
-        <v>116.189486</v>
+        <v>116.21884</v>
       </c>
       <c r="E254">
-        <v>39.760636</v>
+        <v>39.794885</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5972,13 +5996,13 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D255">
-        <v>116.08672</v>
+        <v>116.188145</v>
       </c>
       <c r="E255">
-        <v>39.724606</v>
+        <v>40.068936</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5986,16 +6010,16 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="D256">
-        <v>116.333381</v>
+        <v>116.41235</v>
       </c>
       <c r="E256">
-        <v>39.844433</v>
+        <v>40.053032</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6006,13 +6030,13 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="D257">
-        <v>116.562321</v>
+        <v>116.414496</v>
       </c>
       <c r="E257">
-        <v>39.783673</v>
+        <v>40.041956</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6023,13 +6047,13 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D258">
-        <v>116.670792</v>
+        <v>116.599002</v>
       </c>
       <c r="E258">
-        <v>39.863515</v>
+        <v>39.90909</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6040,13 +6064,13 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="D259">
-        <v>116.448364</v>
+        <v>116.189486</v>
       </c>
       <c r="E259">
-        <v>39.834217</v>
+        <v>39.760636</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6057,13 +6081,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="D260">
-        <v>116.347328</v>
+        <v>116.08672</v>
       </c>
       <c r="E260">
-        <v>40.060039</v>
+        <v>39.724606</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6074,13 +6098,13 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D261">
-        <v>116.326992</v>
+        <v>116.333381</v>
       </c>
       <c r="E261">
-        <v>40.087863</v>
+        <v>39.844433</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6091,13 +6115,13 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D262">
-        <v>116.140804</v>
+        <v>116.562321</v>
       </c>
       <c r="E262">
-        <v>39.723202</v>
+        <v>39.783673</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6108,13 +6132,13 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="D263">
-        <v>116.176541</v>
+        <v>116.670792</v>
       </c>
       <c r="E263">
-        <v>39.723159</v>
+        <v>39.863515</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6125,13 +6149,13 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D264">
-        <v>116.18348</v>
+        <v>116.448364</v>
       </c>
       <c r="E264">
-        <v>39.729906</v>
+        <v>39.834217</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6142,13 +6166,13 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D265">
-        <v>116.156282</v>
+        <v>116.347328</v>
       </c>
       <c r="E265">
-        <v>39.723157</v>
+        <v>40.060039</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6156,16 +6180,16 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D266">
-        <v>116.435914</v>
+        <v>116.326992</v>
       </c>
       <c r="E266">
-        <v>39.977636</v>
+        <v>40.087863</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6176,13 +6200,13 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D267">
-        <v>116.310683</v>
+        <v>116.140804</v>
       </c>
       <c r="E267">
-        <v>39.93234</v>
+        <v>39.723202</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6190,16 +6214,16 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="D268">
-        <v>116.695495</v>
+        <v>116.176541</v>
       </c>
       <c r="E268">
-        <v>39.856722</v>
+        <v>39.723159</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6210,13 +6234,13 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D269">
-        <v>116.557593</v>
+        <v>116.18348</v>
       </c>
       <c r="E269">
-        <v>40.084436</v>
+        <v>39.729906</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6227,13 +6251,13 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D270">
-        <v>116.306332</v>
+        <v>116.156282</v>
       </c>
       <c r="E270">
-        <v>39.975642</v>
+        <v>39.723157</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6241,16 +6265,16 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D271">
-        <v>116.125306</v>
+        <v>116.435914</v>
       </c>
       <c r="E271">
-        <v>39.723188</v>
+        <v>39.977636</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6261,13 +6285,13 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D272">
-        <v>116.177388</v>
+        <v>116.32016</v>
       </c>
       <c r="E272">
-        <v>39.926727</v>
+        <v>39.829272</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6278,13 +6302,13 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D273">
-        <v>116.2481</v>
+        <v>116.310683</v>
       </c>
       <c r="E273">
-        <v>39.982113</v>
+        <v>39.93234</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6292,16 +6316,16 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="D274">
-        <v>116.615574</v>
+        <v>116.695495</v>
       </c>
       <c r="E274">
-        <v>39.924477</v>
+        <v>39.856722</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6309,16 +6333,16 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="D275">
-        <v>116.351387</v>
+        <v>116.557593</v>
       </c>
       <c r="E275">
-        <v>39.845869</v>
+        <v>40.084436</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6329,13 +6353,13 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D276">
-        <v>116.513321</v>
+        <v>116.308092</v>
       </c>
       <c r="E276">
-        <v>39.793189</v>
+        <v>39.962052</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6346,13 +6370,13 @@
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="D277">
-        <v>116.521688</v>
+        <v>116.306332</v>
       </c>
       <c r="E277">
-        <v>39.782832</v>
+        <v>39.975642</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6363,13 +6387,13 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D278">
-        <v>116.310347</v>
+        <v>116.125306</v>
       </c>
       <c r="E278">
-        <v>39.897867</v>
+        <v>39.723188</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6377,16 +6401,16 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="D279">
-        <v>116.374425</v>
+        <v>116.177388</v>
       </c>
       <c r="E279">
-        <v>39.889296</v>
+        <v>39.926727</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6394,16 +6418,16 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="D280">
-        <v>116.42372</v>
+        <v>116.2481</v>
       </c>
       <c r="E280">
-        <v>39.865621</v>
+        <v>39.982113</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6414,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D281">
-        <v>116.384596</v>
+        <v>116.615574</v>
       </c>
       <c r="E281">
-        <v>39.889486</v>
+        <v>39.924477</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6428,16 +6452,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="D282">
-        <v>116.563961</v>
+        <v>116.351387</v>
       </c>
       <c r="E282">
-        <v>39.924021</v>
+        <v>39.845869</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6445,16 +6469,16 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="D283">
-        <v>116.306295</v>
+        <v>116.513321</v>
       </c>
       <c r="E283">
-        <v>40.053034</v>
+        <v>39.793189</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6465,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D284">
-        <v>116.257923</v>
+        <v>116.521688</v>
       </c>
       <c r="E284">
-        <v>40.048703</v>
+        <v>39.782832</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6479,16 +6503,16 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D285">
-        <v>116.374072</v>
+        <v>116.310347</v>
       </c>
       <c r="E285">
-        <v>39.907383</v>
+        <v>39.897867</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6496,16 +6520,16 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="D286">
-        <v>116.373332</v>
+        <v>116.374425</v>
       </c>
       <c r="E286">
-        <v>39.924206</v>
+        <v>39.889296</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6513,16 +6537,16 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="D287">
-        <v>116.354098</v>
+        <v>116.42372</v>
       </c>
       <c r="E287">
-        <v>39.976549</v>
+        <v>39.865621</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6533,13 +6557,13 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D288">
-        <v>116.351644</v>
+        <v>116.384596</v>
       </c>
       <c r="E288">
-        <v>40.046873</v>
+        <v>39.889486</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6547,16 +6571,16 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="D289">
-        <v>116.303819</v>
+        <v>116.563961</v>
       </c>
       <c r="E289">
-        <v>39.86677</v>
+        <v>39.924021</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6564,16 +6588,16 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D290">
-        <v>116.355426</v>
+        <v>116.306295</v>
       </c>
       <c r="E290">
-        <v>39.940474</v>
+        <v>40.053034</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6584,13 +6608,13 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D291">
-        <v>116.328689</v>
+        <v>116.257923</v>
       </c>
       <c r="E291">
-        <v>39.7898</v>
+        <v>40.048703</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6601,13 +6625,13 @@
         <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D292">
-        <v>116.290908</v>
+        <v>116.374072</v>
       </c>
       <c r="E292">
-        <v>39.998258</v>
+        <v>39.907383</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6618,13 +6642,13 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D293">
-        <v>116.298064</v>
+        <v>116.373332</v>
       </c>
       <c r="E293">
-        <v>39.923481</v>
+        <v>39.924206</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6635,13 +6659,13 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D294">
-        <v>116.206932</v>
+        <v>116.354098</v>
       </c>
       <c r="E294">
-        <v>39.933605</v>
+        <v>39.976549</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6652,13 +6676,13 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D295">
-        <v>116.385649</v>
+        <v>116.351644</v>
       </c>
       <c r="E295">
-        <v>39.845135</v>
+        <v>40.046873</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6669,13 +6693,13 @@
         <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="D296">
-        <v>116.371154</v>
+        <v>116.303819</v>
       </c>
       <c r="E296">
-        <v>39.84585</v>
+        <v>39.86677</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6683,16 +6707,16 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C297" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D297">
-        <v>116.354357</v>
+        <v>116.355426</v>
       </c>
       <c r="E297">
-        <v>39.93239699999999</v>
+        <v>39.940474</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6703,13 +6727,13 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D298">
-        <v>116.344082</v>
+        <v>116.328689</v>
       </c>
       <c r="E298">
-        <v>39.932466</v>
+        <v>39.7898</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6717,16 +6741,16 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="D299">
-        <v>116.293818</v>
+        <v>116.290908</v>
       </c>
       <c r="E299">
-        <v>39.947923</v>
+        <v>39.998258</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6737,13 +6761,13 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D300">
-        <v>116.336455</v>
+        <v>116.298064</v>
       </c>
       <c r="E300">
-        <v>39.889884</v>
+        <v>39.923481</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6754,13 +6778,13 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D301">
-        <v>116.661131</v>
+        <v>116.206932</v>
       </c>
       <c r="E301">
-        <v>39.917962</v>
+        <v>39.933605</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6771,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D302">
-        <v>116.637252</v>
+        <v>116.385649</v>
       </c>
       <c r="E302">
-        <v>39.903864</v>
+        <v>39.845135</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6785,16 +6809,16 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D303">
-        <v>116.569826</v>
+        <v>116.371154</v>
       </c>
       <c r="E303">
-        <v>39.856496</v>
+        <v>39.84585</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6802,16 +6826,16 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="D304">
-        <v>116.717826</v>
+        <v>116.354357</v>
       </c>
       <c r="E304">
-        <v>39.903195</v>
+        <v>39.93239699999999</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6819,16 +6843,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="D305">
-        <v>116.301889</v>
+        <v>116.344082</v>
       </c>
       <c r="E305">
-        <v>39.814322</v>
+        <v>39.932466</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6839,13 +6863,13 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D306">
-        <v>116.253068</v>
+        <v>116.293818</v>
       </c>
       <c r="E306">
-        <v>39.864841</v>
+        <v>39.947923</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6856,13 +6880,13 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D307">
-        <v>116.461743</v>
+        <v>116.336455</v>
       </c>
       <c r="E307">
-        <v>39.916838</v>
+        <v>39.889884</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6870,16 +6894,16 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D308">
-        <v>116.478115</v>
+        <v>116.661131</v>
       </c>
       <c r="E308">
-        <v>39.923556</v>
+        <v>39.917962</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6887,16 +6911,16 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="D309">
-        <v>116.163167</v>
+        <v>116.637252</v>
       </c>
       <c r="E309">
-        <v>39.92362</v>
+        <v>39.903864</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6907,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D310">
-        <v>116.294255</v>
+        <v>116.569826</v>
       </c>
       <c r="E310">
-        <v>39.958527</v>
+        <v>39.856496</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6924,13 +6948,13 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D311">
-        <v>116.363355</v>
+        <v>116.717826</v>
       </c>
       <c r="E311">
-        <v>39.899433</v>
+        <v>39.903195</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6938,16 +6962,16 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="D312">
-        <v>116.212692</v>
+        <v>116.301889</v>
       </c>
       <c r="E312">
-        <v>39.763871</v>
+        <v>39.814322</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6958,13 +6982,13 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D313">
-        <v>116.080165</v>
+        <v>116.253068</v>
       </c>
       <c r="E313">
-        <v>39.716731</v>
+        <v>39.864841</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6972,16 +6996,16 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="D314">
-        <v>116.100817</v>
+        <v>116.461743</v>
       </c>
       <c r="E314">
-        <v>39.729028</v>
+        <v>39.916838</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6989,16 +7013,16 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D315">
-        <v>116.356009</v>
+        <v>116.478115</v>
       </c>
       <c r="E315">
-        <v>39.923686</v>
+        <v>39.923556</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7006,16 +7030,16 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D316">
-        <v>116.47174</v>
+        <v>116.163167</v>
       </c>
       <c r="E316">
-        <v>39.991699</v>
+        <v>39.92362</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7026,13 +7050,13 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D317">
-        <v>116.374383</v>
+        <v>116.294255</v>
       </c>
       <c r="E317">
-        <v>39.87847</v>
+        <v>39.958527</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7040,16 +7064,16 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D318">
-        <v>116.417069</v>
+        <v>116.363355</v>
       </c>
       <c r="E318">
-        <v>39.949336</v>
+        <v>39.899433</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7057,16 +7081,16 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="D319">
-        <v>116.360286</v>
+        <v>116.212692</v>
       </c>
       <c r="E319">
-        <v>40.071857</v>
+        <v>39.763871</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7077,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="D320">
-        <v>116.517429</v>
+        <v>116.080165</v>
       </c>
       <c r="E320">
-        <v>39.923168</v>
+        <v>39.716731</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7091,16 +7115,16 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="D321">
-        <v>116.657023</v>
+        <v>116.100817</v>
       </c>
       <c r="E321">
-        <v>40.129994</v>
+        <v>39.729028</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7111,13 +7135,13 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D322">
-        <v>116.263248</v>
+        <v>116.356009</v>
       </c>
       <c r="E322">
-        <v>39.98569699999999</v>
+        <v>39.923686</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7128,13 +7152,13 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="D323">
-        <v>116.006103</v>
+        <v>116.47174</v>
       </c>
       <c r="E323">
-        <v>39.70147100000001</v>
+        <v>39.991699</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7145,13 +7169,13 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D324">
-        <v>116.320202</v>
+        <v>116.374383</v>
       </c>
       <c r="E324">
-        <v>39.844463</v>
+        <v>39.87847</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7159,16 +7183,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="D325">
-        <v>116.204491</v>
+        <v>116.417069</v>
       </c>
       <c r="E325">
-        <v>39.994056</v>
+        <v>39.949336</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7176,16 +7200,16 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="D326">
-        <v>116.016606</v>
+        <v>116.360286</v>
       </c>
       <c r="E326">
-        <v>39.705103</v>
+        <v>40.071857</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7196,13 +7220,13 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D327">
-        <v>116.371361</v>
+        <v>116.517429</v>
       </c>
       <c r="E327">
-        <v>39.853109</v>
+        <v>39.923168</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7213,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D328">
-        <v>116.50348</v>
+        <v>116.657023</v>
       </c>
       <c r="E328">
-        <v>40.033721</v>
+        <v>40.129994</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7230,13 +7254,13 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D329">
-        <v>116.27252</v>
+        <v>116.263248</v>
       </c>
       <c r="E329">
-        <v>40.032637</v>
+        <v>39.98569699999999</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7247,13 +7271,13 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="D330">
-        <v>116.68434</v>
+        <v>116.006103</v>
       </c>
       <c r="E330">
-        <v>39.86315399999999</v>
+        <v>39.70147100000001</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7261,16 +7285,16 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="D331">
-        <v>116.531421</v>
+        <v>116.320202</v>
       </c>
       <c r="E331">
-        <v>39.909448</v>
+        <v>39.844463</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7281,13 +7305,13 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D332">
-        <v>116.330787</v>
+        <v>116.204491</v>
       </c>
       <c r="E332">
-        <v>39.773547</v>
+        <v>39.994056</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7298,13 +7322,13 @@
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D333">
-        <v>116.331605</v>
+        <v>116.016606</v>
       </c>
       <c r="E333">
-        <v>39.763489</v>
+        <v>39.705103</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7315,13 +7339,13 @@
         <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D334">
-        <v>116.32322</v>
+        <v>116.371361</v>
       </c>
       <c r="E334">
-        <v>39.957904</v>
+        <v>39.853109</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7332,13 +7356,13 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D335">
-        <v>116.553759</v>
+        <v>116.50348</v>
       </c>
       <c r="E335">
-        <v>39.848979</v>
+        <v>40.033721</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7349,13 +7373,13 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D336">
-        <v>116.332611</v>
+        <v>116.27252</v>
       </c>
       <c r="E336">
-        <v>39.722966</v>
+        <v>40.032637</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7366,13 +7390,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D337">
-        <v>116.332631</v>
+        <v>116.68434</v>
       </c>
       <c r="E337">
-        <v>39.731769</v>
+        <v>39.86315399999999</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7383,13 +7407,13 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D338">
-        <v>116.578266</v>
+        <v>116.531421</v>
       </c>
       <c r="E338">
-        <v>39.924201</v>
+        <v>39.909448</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7400,13 +7424,13 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D339">
-        <v>116.599119</v>
+        <v>116.330787</v>
       </c>
       <c r="E339">
-        <v>39.858725</v>
+        <v>39.773547</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7414,16 +7438,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="D340">
-        <v>116.393776</v>
+        <v>116.331605</v>
       </c>
       <c r="E340">
-        <v>39.948972</v>
+        <v>39.763489</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7434,12 +7458,131 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D341">
+        <v>116.32322</v>
+      </c>
+      <c r="E341">
+        <v>39.957904</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>345</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>358</v>
+      </c>
+      <c r="D342">
+        <v>116.553759</v>
+      </c>
+      <c r="E342">
+        <v>39.848979</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>346</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>370</v>
+      </c>
+      <c r="D343">
+        <v>116.332611</v>
+      </c>
+      <c r="E343">
+        <v>39.722966</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>347</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>370</v>
+      </c>
+      <c r="D344">
+        <v>116.332631</v>
+      </c>
+      <c r="E344">
+        <v>39.731769</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>348</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>365</v>
+      </c>
+      <c r="D345">
+        <v>116.578266</v>
+      </c>
+      <c r="E345">
+        <v>39.924201</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>349</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346" t="s">
+        <v>358</v>
+      </c>
+      <c r="D346">
+        <v>116.599119</v>
+      </c>
+      <c r="E346">
+        <v>39.858725</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>430</v>
+      </c>
+      <c r="D347">
+        <v>116.393776</v>
+      </c>
+      <c r="E347">
+        <v>39.948972</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>360</v>
+      </c>
+      <c r="D348">
         <v>116.319429</v>
       </c>
-      <c r="E341">
+      <c r="E348">
         <v>40.070882</v>
       </c>
     </row>
